--- a/Collaborative Filtering.xlsx
+++ b/Collaborative Filtering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LTE\Desktop\Yeshiva DAV\Fall_2022\Recommender Systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93585C40-0C22-4C10-BDEE-93B5BF888C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FAAAD1-7504-4700-A60D-10BEC013A88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Huawei</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Sony</t>
   </si>
   <si>
-    <t>UserAvg</t>
-  </si>
-  <si>
     <t>Olivia</t>
   </si>
   <si>
@@ -71,16 +68,16 @@
     <t>ZYC</t>
   </si>
   <si>
+    <t>Jason</t>
+  </si>
+  <si>
     <t>Tianen</t>
   </si>
   <si>
-    <t>PhoneAvg</t>
-  </si>
-  <si>
-    <t>PhoneAvg - UserAvg</t>
-  </si>
-  <si>
-    <t>Jason</t>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>BrandAvg</t>
   </si>
 </sst>
 </file>
@@ -398,184 +395,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.53125" customWidth="1"/>
-    <col min="2" max="2" width="11.86328125" customWidth="1"/>
-    <col min="3" max="3" width="13.06640625" customWidth="1"/>
+    <col min="1" max="1" width="16.9296875" customWidth="1"/>
+    <col min="10" max="10" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
         <v>5</v>
       </c>
       <c r="E2">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
       <c r="H2">
-        <f xml:space="preserve"> SUM(B2:G2)/COUNTIF(B2:G2,"&gt;0")</f>
-        <v>4.166666666666667</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <f xml:space="preserve"> H2 - H9</f>
-        <v>0.44869791666666714</v>
+        <f xml:space="preserve"> SUM(B2:H2)/COUNTIF(B2:H2, "&gt;0")</f>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>4</v>
       </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
       <c r="H3">
-        <f t="shared" ref="H3:H7" si="0" xml:space="preserve"> SUM(B3:G3)/COUNTIF(B3:G3,"&gt;0")</f>
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <f xml:space="preserve"> H3 - H9</f>
-        <v>3.2031250000000178E-2</v>
+        <f t="shared" ref="I3:I8" si="0" xml:space="preserve"> SUM(B3:H3)/COUNTIF(B3:H3, "&gt;0")</f>
+        <v>3.7142857142857144</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="H4">
+        <v>3.5</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <f xml:space="preserve"> H4 - H9</f>
-        <v>0.28203125000000018</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>4.5</v>
       </c>
       <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>4.5</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>4.083333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="E6">
         <v>3.5</v>
       </c>
-      <c r="G5">
-        <v>2.5</v>
-      </c>
-      <c r="H5">
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="I5">
-        <f xml:space="preserve"> H5 - H9</f>
-        <v>-0.21796874999999982</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>3.25</v>
-      </c>
-      <c r="I6">
-        <f xml:space="preserve"> H6 - H9</f>
-        <v>-0.46796874999999982</v>
-      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>2.5</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="I7">
-        <f xml:space="preserve"> H7 - H9</f>
-        <v>-0.21796874999999982</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
@@ -595,74 +585,11 @@
         <v>4</v>
       </c>
       <c r="H8">
-        <f xml:space="preserve"> SUM(B8:G8)/COUNTIF(B8:G8,"&gt;0")</f>
         <v>4.375</v>
       </c>
       <c r="I8">
-        <f xml:space="preserve"> H8 - H9</f>
-        <v>0.65703125000000018</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <f xml:space="preserve"> SUM(B2:B6)/COUNTIF(B2:B6, "&gt;0")</f>
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ref="C9:G9" si="1" xml:space="preserve"> SUM(C2:C6)/COUNTIF(C2:C6, "&gt;0")</f>
-        <v>3.6</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>3.375</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="H9">
-        <f xml:space="preserve"> SUM(B2:G9)/COUNTIF(B2:G9,"&gt;0")</f>
-        <v>3.7179687499999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <f xml:space="preserve"> B9 - H9</f>
-        <v>0.28203125000000018</v>
-      </c>
-      <c r="C10">
-        <f xml:space="preserve"> C9 - H9</f>
-        <v>-0.11796874999999973</v>
-      </c>
-      <c r="D10">
-        <f xml:space="preserve"> D9 - H9</f>
-        <v>-0.21796874999999982</v>
-      </c>
-      <c r="E10">
-        <f xml:space="preserve"> E9 - H9</f>
-        <v>0.28203125000000018</v>
-      </c>
-      <c r="F10">
-        <f xml:space="preserve"> F9 - H9</f>
-        <v>-0.34296874999999982</v>
-      </c>
-      <c r="G10">
-        <f xml:space="preserve"> G9 - H9</f>
-        <v>-1.2179687499999998</v>
+        <f t="shared" si="0"/>
+        <v>4.375</v>
       </c>
     </row>
   </sheetData>
